--- a/doc/通信协议-20160413.xlsx
+++ b/doc/通信协议-20160413.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView minimized="1" xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,8 +614,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,27 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,12 +809,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -882,7 +918,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -914,9 +950,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -948,6 +985,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1123,14 +1161,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -1139,25 +1177,25 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1184,11 +1222,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1214,12 +1252,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="25"/>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1229,20 +1267,20 @@
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1252,23 +1290,23 @@
       <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="31"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25"/>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1278,20 +1316,20 @@
       <c r="E8" s="15">
         <v>0</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1301,23 +1339,23 @@
       <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="31"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25"/>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1327,20 +1365,20 @@
       <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1350,30 +1388,30 @@
       <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
       <c r="I12" s="31"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="25"/>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
@@ -1400,9 +1438,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
@@ -1412,42 +1450,42 @@
       <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C17" s="27" t="s">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1459,10 +1497,10 @@
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
         <v>41</v>
@@ -1471,9 +1509,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1500,22 +1538,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A23" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="25"/>
+    <row r="22" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="29"/>
       <c r="C23" s="23" t="s">
         <v>82</v>
       </c>
@@ -1524,9 +1562,9 @@
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="34"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23" t="s">
         <v>41</v>
@@ -1535,9 +1573,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+    <row r="24" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="23" t="s">
         <v>82</v>
       </c>
@@ -1562,20 +1600,20 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C25" s="26" t="s">
+    <row r="25" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1586,11 +1624,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="25"/>
+    <row r="27" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="29"/>
       <c r="C27" s="23" t="s">
         <v>146</v>
       </c>
@@ -1600,11 +1638,11 @@
       <c r="E27" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="30" t="s">
         <v>148</v>
       </c>
       <c r="G27" s="31"/>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="30" t="s">
         <v>141</v>
       </c>
       <c r="I27" s="31"/>
@@ -1616,9 +1654,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="23" t="s">
         <v>146</v>
       </c>
@@ -1645,23 +1683,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+    <row r="29" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1672,11 +1710,11 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A31" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="25"/>
+    <row r="31" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="13" t="s">
         <v>82</v>
       </c>
@@ -1690,7 +1728,7 @@
         <v>130</v>
       </c>
       <c r="G31" s="19"/>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="30" t="s">
         <v>141</v>
       </c>
       <c r="I31" s="31"/>
@@ -1702,9 +1740,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="23" t="s">
         <v>82</v>
       </c>
@@ -1731,21 +1769,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="23.25" customHeight="1">
+    <row r="33" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="34" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1756,7 +1794,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="35" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1767,7 +1805,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="36" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1778,11 +1816,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="37" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="25"/>
+    <row r="37" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="29"/>
       <c r="C37" s="23" t="s">
         <v>128</v>
       </c>
@@ -1792,20 +1830,20 @@
       <c r="E37" s="23">
         <v>0</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+    <row r="38" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
       <c r="C38" s="23" t="s">
         <v>128</v>
       </c>
@@ -1832,18 +1870,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-    </row>
-    <row r="40" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="39" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1854,11 +1892,11 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A41" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="25"/>
+    <row r="41" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="29"/>
       <c r="C41" s="23" t="s">
         <v>131</v>
       </c>
@@ -1868,20 +1906,20 @@
       <c r="E41" s="23">
         <v>0</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+    <row r="42" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="23" t="s">
         <v>131</v>
       </c>
@@ -1908,22 +1946,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-    </row>
-    <row r="44" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="25"/>
+    <row r="43" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+    </row>
+    <row r="44" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="29"/>
       <c r="C44" s="23" t="s">
         <v>132</v>
       </c>
@@ -1933,20 +1971,20 @@
       <c r="E44" s="23">
         <v>0</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+    <row r="45" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
       <c r="C45" s="23" t="s">
         <v>132</v>
       </c>
@@ -1973,7 +2011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="46" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1984,11 +2022,11 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A47" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="25"/>
+    <row r="47" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="29"/>
       <c r="C47" s="23" t="s">
         <v>133</v>
       </c>
@@ -1998,20 +2036,20 @@
       <c r="E47" s="23">
         <v>0</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+    <row r="48" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="23" t="s">
         <v>133</v>
       </c>
@@ -2038,7 +2076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="49" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2049,11 +2087,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A50" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="25"/>
+    <row r="50" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="29"/>
       <c r="C50" s="23" t="s">
         <v>134</v>
       </c>
@@ -2063,20 +2101,20 @@
       <c r="E50" s="23">
         <v>0</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+    <row r="51" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="23" t="s">
         <v>134</v>
       </c>
@@ -2103,7 +2141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="52" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2114,11 +2152,11 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A53" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="25"/>
+    <row r="53" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="29"/>
       <c r="C53" s="23" t="s">
         <v>140</v>
       </c>
@@ -2128,20 +2166,20 @@
       <c r="E53" s="23">
         <v>0</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+    <row r="54" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="23" t="s">
         <v>140</v>
       </c>
@@ -2168,7 +2206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="55" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2179,7 +2217,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
     </row>
-    <row r="56" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="56" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2190,7 +2228,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1">
+    <row r="57" spans="1:12" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2201,7 +2239,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="8"/>
@@ -2214,9 +2252,9 @@
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
+    <row r="59" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
@@ -2227,11 +2265,11 @@
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
     </row>
-    <row r="60" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A60" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="25"/>
+    <row r="60" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="29"/>
       <c r="C60" s="6" t="s">
         <v>30</v>
       </c>
@@ -2241,21 +2279,21 @@
       <c r="E60" s="15">
         <v>0</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6" t="s">
         <v>41</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
+    <row r="61" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="6" t="s">
         <v>30</v>
       </c>
@@ -2282,7 +2320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="62" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2295,11 +2333,11 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A63" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="25"/>
+    <row r="63" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="29"/>
       <c r="C63" s="6" t="s">
         <v>31</v>
       </c>
@@ -2309,20 +2347,20 @@
       <c r="E63" s="15">
         <v>0</v>
       </c>
-      <c r="F63" s="25" t="s">
+      <c r="F63" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
+    <row r="64" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="6" t="s">
         <v>31</v>
       </c>
@@ -2349,7 +2387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1">
+    <row r="65" spans="1:12" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2362,11 +2400,11 @@
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
     </row>
-    <row r="66" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A66" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="25"/>
+    <row r="66" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="29"/>
       <c r="C66" s="12" t="s">
         <v>32</v>
       </c>
@@ -2376,20 +2414,20 @@
       <c r="E66" s="15">
         <v>0</v>
       </c>
-      <c r="F66" s="25" t="s">
+      <c r="F66" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
+    <row r="67" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="12" t="s">
         <v>32</v>
       </c>
@@ -2417,7 +2455,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="68" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -2430,7 +2468,7 @@
       <c r="J68" s="10"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+    <row r="69" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2443,11 +2481,11 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A70" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="25"/>
+    <row r="70" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="29"/>
       <c r="C70" s="12" t="s">
         <v>74</v>
       </c>
@@ -2457,20 +2495,20 @@
       <c r="E70" s="15">
         <v>0</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
+    <row r="71" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="12" t="s">
         <v>74</v>
       </c>
@@ -2497,7 +2535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1">
+    <row r="72" spans="1:12" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2510,11 +2548,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A73" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="25"/>
+    <row r="73" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="29"/>
       <c r="C73" s="12" t="s">
         <v>79</v>
       </c>
@@ -2524,20 +2562,20 @@
       <c r="E73" s="15">
         <v>0</v>
       </c>
-      <c r="F73" s="25" t="s">
+      <c r="F73" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
+    <row r="74" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="12" t="s">
         <v>79</v>
       </c>
@@ -2565,22 +2603,22 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="75" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="8"/>
     </row>
-    <row r="76" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+    <row r="76" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2593,11 +2631,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
     </row>
-    <row r="77" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A77" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="25"/>
+    <row r="77" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="29"/>
       <c r="C77" s="13" t="s">
         <v>84</v>
       </c>
@@ -2607,20 +2645,20 @@
       <c r="E77" s="15">
         <v>0</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
       <c r="J77" s="13"/>
       <c r="K77" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
+    <row r="78" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="13" t="s">
         <v>84</v>
       </c>
@@ -2647,7 +2685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1">
+    <row r="79" spans="1:12" s="14" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2660,9 +2698,9 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
     </row>
-    <row r="80" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+    <row r="80" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2673,11 +2711,11 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A81" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="25"/>
+    <row r="81" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="29"/>
       <c r="C81" s="6" t="s">
         <v>33</v>
       </c>
@@ -2687,20 +2725,20 @@
       <c r="E81" s="15">
         <v>0</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
+    <row r="82" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="6" t="s">
         <v>33</v>
       </c>
@@ -2728,27 +2766,27 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="83" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="85" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A85" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="25"/>
+    <row r="84" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="29"/>
       <c r="C85" s="6" t="s">
         <v>34</v>
       </c>
@@ -2758,20 +2796,20 @@
       <c r="E85" s="15">
         <v>0</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
+    <row r="86" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="6" t="s">
         <v>34</v>
       </c>
@@ -2799,27 +2837,27 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
+    <row r="87" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
     </row>
-    <row r="88" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1"/>
-    <row r="89" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A89" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="25"/>
+    <row r="88" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:12" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="29"/>
       <c r="C89" s="6" t="s">
         <v>35</v>
       </c>
@@ -2829,20 +2867,20 @@
       <c r="E89" s="15">
         <v>0</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
+    <row r="90" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="6" t="s">
         <v>35</v>
       </c>
@@ -2870,22 +2908,22 @@
       </c>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" ht="23.25" customHeight="1">
+    <row r="91" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
-    <row r="92" spans="1:12" ht="23.25" customHeight="1">
+    <row r="92" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2898,11 +2936,11 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A93" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="25"/>
+    <row r="93" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="29"/>
       <c r="C93" s="6" t="s">
         <v>36</v>
       </c>
@@ -2912,20 +2950,20 @@
       <c r="E93" s="15">
         <v>0</v>
       </c>
-      <c r="F93" s="25" t="s">
+      <c r="F93" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G93" s="25"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
+    <row r="94" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="6" t="s">
         <v>36</v>
       </c>
@@ -2955,28 +2993,28 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27" t="s">
+    <row r="95" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-    </row>
-    <row r="96" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A97" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="25"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+    </row>
+    <row r="97" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="29"/>
       <c r="C97" s="12" t="s">
         <v>75</v>
       </c>
@@ -2986,12 +3024,12 @@
       <c r="E97" s="15">
         <v>0</v>
       </c>
-      <c r="F97" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
+      <c r="F97" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
       <c r="J97" s="12"/>
       <c r="K97" s="12" t="s">
         <v>41</v>
@@ -3000,9 +3038,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
+    <row r="98" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="29"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="12" t="s">
         <v>36</v>
       </c>
@@ -3029,15 +3067,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-    </row>
-    <row r="100" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A100" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="25"/>
+    <row r="99" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+    </row>
+    <row r="100" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="29"/>
       <c r="C100" s="12" t="s">
         <v>77</v>
       </c>
@@ -3047,20 +3085,20 @@
       <c r="E100" s="15">
         <v>0</v>
       </c>
-      <c r="F100" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="25"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
+      <c r="F100" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
+    <row r="101" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="12" t="s">
         <v>36</v>
       </c>
@@ -3087,7 +3125,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
+    <row r="102" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3100,11 +3138,11 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
     </row>
-    <row r="103" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A103" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="25"/>
+    <row r="103" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="29"/>
       <c r="C103" s="21" t="s">
         <v>102</v>
       </c>
@@ -3114,12 +3152,12 @@
       <c r="E103" s="21">
         <v>0</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
       <c r="J103" s="21"/>
       <c r="K103" s="21" t="s">
         <v>41</v>
@@ -3128,9 +3166,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
+    <row r="104" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="29"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="21" t="s">
         <v>102</v>
       </c>
@@ -3157,7 +3195,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
+    <row r="105" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3170,11 +3208,11 @@
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A106" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="25"/>
+    <row r="106" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="29"/>
       <c r="C106" s="21" t="s">
         <v>118</v>
       </c>
@@ -3184,12 +3222,12 @@
       <c r="E106" s="21">
         <v>0</v>
       </c>
-      <c r="F106" s="25" t="s">
+      <c r="F106" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G106" s="25"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
       <c r="J106" s="21"/>
       <c r="K106" s="21" t="s">
         <v>41</v>
@@ -3198,9 +3236,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
+    <row r="107" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29"/>
       <c r="C107" s="21" t="s">
         <v>118</v>
       </c>
@@ -3227,7 +3265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
+    <row r="108" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3240,11 +3278,11 @@
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
     </row>
-    <row r="109" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A109" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="25"/>
+    <row r="109" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="29"/>
       <c r="C109" s="21" t="s">
         <v>102</v>
       </c>
@@ -3254,12 +3292,12 @@
       <c r="E109" s="21">
         <v>0</v>
       </c>
-      <c r="F109" s="25" t="s">
+      <c r="F109" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G109" s="25"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
       <c r="J109" s="21"/>
       <c r="K109" s="21" t="s">
         <v>41</v>
@@ -3268,9 +3306,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
+    <row r="110" spans="1:12" s="20" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="29"/>
+      <c r="B110" s="29"/>
       <c r="C110" s="21" t="s">
         <v>102</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="18" customFormat="1" ht="23.25" customHeight="1">
+    <row r="111" spans="1:12" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3310,11 +3348,11 @@
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
     </row>
-    <row r="112" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A112" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="25"/>
+    <row r="112" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="29"/>
       <c r="C112" s="17" t="s">
         <v>102</v>
       </c>
@@ -3327,9 +3365,7 @@
       <c r="F112" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G112" s="22" t="s">
-        <v>127</v>
-      </c>
+      <c r="G112" s="22"/>
       <c r="H112" s="17">
         <v>0</v>
       </c>
@@ -3343,19 +3379,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A113" s="25" t="s">
+    <row r="113" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
       <c r="D113" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F113" s="25"/>
+      <c r="F113" s="29"/>
       <c r="G113" s="15"/>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
@@ -3364,17 +3400,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
+    <row r="114" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="29"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
       <c r="D114" s="15">
         <v>9</v>
       </c>
-      <c r="E114" s="25" t="s">
+      <c r="E114" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="F114" s="25"/>
+      <c r="F114" s="29"/>
       <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
@@ -3383,17 +3419,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
+    <row r="115" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="29"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
       <c r="D115" s="15">
         <v>8</v>
       </c>
-      <c r="E115" s="25" t="s">
+      <c r="E115" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F115" s="25"/>
+      <c r="F115" s="29"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
@@ -3402,17 +3438,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
+    <row r="116" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="29"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
       <c r="D116" s="15">
         <v>7</v>
       </c>
-      <c r="E116" s="25" t="s">
+      <c r="E116" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F116" s="25"/>
+      <c r="F116" s="29"/>
       <c r="G116" s="15"/>
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
@@ -3421,17 +3457,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
+    <row r="117" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="29"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
       <c r="D117" s="15">
         <v>6</v>
       </c>
-      <c r="E117" s="25" t="s">
+      <c r="E117" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="25"/>
+      <c r="F117" s="29"/>
       <c r="G117" s="15"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -3440,17 +3476,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+    <row r="118" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="29"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
       <c r="D118" s="15">
         <v>5</v>
       </c>
-      <c r="E118" s="25" t="s">
+      <c r="E118" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F118" s="25"/>
+      <c r="F118" s="29"/>
       <c r="G118" s="15"/>
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
@@ -3459,17 +3495,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+    <row r="119" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="29"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
       <c r="D119" s="15">
         <v>4</v>
       </c>
-      <c r="E119" s="25" t="s">
+      <c r="E119" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F119" s="25"/>
+      <c r="F119" s="29"/>
       <c r="G119" s="15"/>
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
@@ -3478,17 +3514,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+    <row r="120" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="29"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
       <c r="D120" s="15">
         <v>3</v>
       </c>
-      <c r="E120" s="25" t="s">
+      <c r="E120" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F120" s="25"/>
+      <c r="F120" s="29"/>
       <c r="G120" s="15"/>
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
@@ -3497,17 +3533,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+    <row r="121" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="29"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
       <c r="D121" s="15">
         <v>2</v>
       </c>
-      <c r="E121" s="25" t="s">
+      <c r="E121" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="F121" s="25"/>
+      <c r="F121" s="29"/>
       <c r="G121" s="15"/>
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
@@ -3516,17 +3552,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
+    <row r="122" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="29"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
       <c r="D122" s="15">
         <v>1</v>
       </c>
-      <c r="E122" s="25" t="s">
+      <c r="E122" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F122" s="25"/>
+      <c r="F122" s="29"/>
       <c r="G122" s="15"/>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
@@ -3535,11 +3571,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A123" s="25" t="s">
+    <row r="123" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B123" s="25"/>
+      <c r="B123" s="29"/>
       <c r="C123" s="15" t="s">
         <v>102</v>
       </c>
@@ -3568,15 +3604,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="23.25" customHeight="1">
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-    </row>
-    <row r="126" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A126" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="25"/>
+    <row r="124" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+    </row>
+    <row r="126" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="29"/>
       <c r="C126" s="17" t="s">
         <v>118</v>
       </c>
@@ -3608,19 +3644,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A127" s="25" t="s">
+    <row r="127" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
       <c r="D127" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F127" s="25"/>
+      <c r="F127" s="29"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
@@ -3629,17 +3665,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
+    <row r="128" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="29"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
       <c r="D128" s="17">
         <v>9</v>
       </c>
-      <c r="E128" s="25" t="s">
+      <c r="E128" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F128" s="25"/>
+      <c r="F128" s="29"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
@@ -3648,17 +3684,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="25"/>
+    <row r="129" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="29"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
       <c r="D129" s="17">
         <v>8</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E129" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F129" s="25"/>
+      <c r="F129" s="29"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -3667,17 +3703,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
+    <row r="130" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="29"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
       <c r="D130" s="17">
         <v>7</v>
       </c>
-      <c r="E130" s="25" t="s">
+      <c r="E130" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F130" s="25"/>
+      <c r="F130" s="29"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
@@ -3686,17 +3722,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
+    <row r="131" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="29"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
       <c r="D131" s="17">
         <v>6</v>
       </c>
-      <c r="E131" s="25" t="s">
+      <c r="E131" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F131" s="25"/>
+      <c r="F131" s="29"/>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
@@ -3705,17 +3741,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
+    <row r="132" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="29"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
       <c r="D132" s="17">
         <v>5</v>
       </c>
-      <c r="E132" s="25" t="s">
+      <c r="E132" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F132" s="25"/>
+      <c r="F132" s="29"/>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
@@ -3724,17 +3760,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="25"/>
+    <row r="133" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="29"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
       <c r="D133" s="17">
         <v>4</v>
       </c>
-      <c r="E133" s="25" t="s">
+      <c r="E133" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F133" s="25"/>
+      <c r="F133" s="29"/>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
@@ -3743,17 +3779,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="25"/>
+    <row r="134" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="29"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
       <c r="D134" s="17">
         <v>3</v>
       </c>
-      <c r="E134" s="25" t="s">
+      <c r="E134" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F134" s="25"/>
+      <c r="F134" s="29"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
@@ -3762,17 +3798,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A135" s="25"/>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
+    <row r="135" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="29"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
       <c r="D135" s="17">
         <v>2</v>
       </c>
-      <c r="E135" s="25" t="s">
+      <c r="E135" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F135" s="25"/>
+      <c r="F135" s="29"/>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
@@ -3781,17 +3817,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
+    <row r="136" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="29"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
       <c r="D136" s="17">
         <v>1</v>
       </c>
-      <c r="E136" s="25" t="s">
+      <c r="E136" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F136" s="25"/>
+      <c r="F136" s="29"/>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -3800,11 +3836,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A137" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137" s="25"/>
+    <row r="137" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="29"/>
       <c r="C137" s="17" t="s">
         <v>118</v>
       </c>
@@ -3833,11 +3869,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A139" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="25"/>
+    <row r="139" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="29"/>
       <c r="C139" s="17" t="s">
         <v>117</v>
       </c>
@@ -3850,9 +3886,7 @@
       <c r="F139" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G139" s="17">
-        <v>0</v>
-      </c>
+      <c r="G139" s="17"/>
       <c r="H139" s="17">
         <v>0</v>
       </c>
@@ -3869,19 +3903,19 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A140" s="25" t="s">
+    <row r="140" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E140" s="25" t="s">
+      <c r="E140" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F140" s="25"/>
+      <c r="F140" s="29"/>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
@@ -3890,17 +3924,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A141" s="25"/>
-      <c r="B141" s="25"/>
-      <c r="C141" s="25"/>
+    <row r="141" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="29"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
       <c r="D141" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E141" s="25" t="s">
+      <c r="E141" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F141" s="25"/>
+      <c r="F141" s="29"/>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
@@ -3909,17 +3943,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A142" s="25"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="25"/>
+    <row r="142" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="29"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
       <c r="D142" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E142" s="25" t="s">
+      <c r="E142" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F142" s="25"/>
+      <c r="F142" s="29"/>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
@@ -3928,17 +3962,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
+    <row r="143" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="29"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
       <c r="D143" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E143" s="25" t="s">
+      <c r="E143" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F143" s="25"/>
+      <c r="F143" s="29"/>
       <c r="G143" s="17"/>
       <c r="H143" s="17"/>
       <c r="I143" s="17"/>
@@ -3947,17 +3981,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
+    <row r="144" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="29"/>
+      <c r="B144" s="29"/>
+      <c r="C144" s="29"/>
       <c r="D144" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E144" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F144" s="25"/>
+      <c r="F144" s="29"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
@@ -3966,17 +4000,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="25"/>
+    <row r="145" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="29"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
       <c r="D145" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E145" s="25" t="s">
+      <c r="E145" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F145" s="25"/>
+      <c r="F145" s="29"/>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
       <c r="I145" s="17"/>
@@ -3985,17 +4019,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A146" s="25"/>
-      <c r="B146" s="25"/>
-      <c r="C146" s="25"/>
+    <row r="146" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="29"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
       <c r="D146" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E146" s="25" t="s">
+      <c r="E146" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F146" s="25"/>
+      <c r="F146" s="29"/>
       <c r="G146" s="17"/>
       <c r="H146" s="17"/>
       <c r="I146" s="17"/>
@@ -4004,17 +4038,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="25"/>
+    <row r="147" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="29"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
       <c r="D147" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E147" s="25" t="s">
+      <c r="E147" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F147" s="25"/>
+      <c r="F147" s="29"/>
       <c r="G147" s="17"/>
       <c r="H147" s="17"/>
       <c r="I147" s="17"/>
@@ -4023,17 +4057,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A148" s="25"/>
-      <c r="B148" s="25"/>
-      <c r="C148" s="25"/>
+    <row r="148" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="29"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
       <c r="D148" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E148" s="25" t="s">
+      <c r="E148" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F148" s="25"/>
+      <c r="F148" s="29"/>
       <c r="G148" s="17"/>
       <c r="H148" s="17"/>
       <c r="I148" s="17"/>
@@ -4042,17 +4076,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A149" s="25"/>
-      <c r="B149" s="25"/>
-      <c r="C149" s="25"/>
+    <row r="149" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="29"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
       <c r="D149" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E149" s="25" t="s">
+      <c r="E149" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F149" s="25"/>
+      <c r="F149" s="29"/>
       <c r="G149" s="17"/>
       <c r="H149" s="17"/>
       <c r="I149" s="17"/>
@@ -4061,11 +4095,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="23.25" customHeight="1">
-      <c r="A150" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="25"/>
+    <row r="150" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="29"/>
       <c r="C150" s="17" t="s">
         <v>117</v>
       </c>
@@ -4096,81 +4130,33 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="F93:I93"/>
-    <mergeCell ref="C95:I95"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A93:B94"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A47:B48"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="A53:B54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A113:B122"/>
-    <mergeCell ref="C113:C122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="A103:B104"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="F106:I106"/>
-    <mergeCell ref="A109:B110"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="A81:B82"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B149"/>
+    <mergeCell ref="C140:C149"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="A127:B136"/>
+    <mergeCell ref="C127:C136"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
     <mergeCell ref="A126:B126"/>
     <mergeCell ref="C75:J75"/>
     <mergeCell ref="A80:B80"/>
@@ -4195,33 +4181,81 @@
     <mergeCell ref="F85:I85"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="A63:B64"/>
-    <mergeCell ref="A127:B136"/>
-    <mergeCell ref="C127:C136"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B149"/>
-    <mergeCell ref="C140:C149"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E142:F142"/>
-    <mergeCell ref="E143:F143"/>
-    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A113:B122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A53:B54"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="A103:B104"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="F106:I106"/>
+    <mergeCell ref="A109:B110"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="C95:I95"/>
+    <mergeCell ref="C91:I91"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:B94"/>
+    <mergeCell ref="F73:I73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4230,21 +4264,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -4258,7 +4292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -4287,7 +4321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I3" t="s">
         <v>96</v>
       </c>
@@ -4304,8 +4338,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="27" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
         <v>64</v>
       </c>
       <c r="C4">
@@ -4333,8 +4367,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="32"/>
       <c r="C5">
         <v>1</v>
       </c>
@@ -4345,8 +4379,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="32"/>
       <c r="C6">
         <v>2</v>
       </c>
@@ -4357,8 +4391,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="32"/>
       <c r="C7">
         <v>3</v>
       </c>
@@ -4367,8 +4401,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="27" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C8">
@@ -4379,8 +4413,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="32"/>
       <c r="C9">
         <v>5</v>
       </c>
@@ -4389,8 +4423,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="27"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="32"/>
       <c r="C10">
         <v>6</v>
       </c>
@@ -4399,8 +4433,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="32"/>
       <c r="C11">
         <v>7</v>
       </c>
@@ -4409,8 +4443,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C12">
@@ -4421,8 +4455,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="32"/>
       <c r="C13">
         <v>9</v>
       </c>
@@ -4431,8 +4465,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="32"/>
       <c r="C14">
         <v>10</v>
       </c>
@@ -4441,8 +4475,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="32"/>
       <c r="C15">
         <v>11</v>
       </c>
@@ -4451,7 +4485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="14" t="s">
         <v>72</v>
       </c>
@@ -4462,7 +4496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>101</v>
       </c>
@@ -4473,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C18">
         <v>14</v>
       </c>
@@ -4481,7 +4515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C19">
         <v>15</v>
       </c>
@@ -4489,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C20">
         <v>16</v>
       </c>
@@ -4497,7 +4531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C21">
         <v>17</v>
       </c>
@@ -4505,7 +4539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C22">
         <v>18</v>
       </c>
@@ -4513,137 +4547,137 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C23">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C24">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C26">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49">
         <v>45</v>
       </c>
@@ -4661,12 +4695,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
